--- a/woe_all_variables.xlsx
+++ b/woe_all_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antek\data_mine_projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EACFE3-728D-43E9-BD54-8B8710526A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB844F5-D217-4E3F-8F14-F48A787E7DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,14 +504,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A24" sqref="A24:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
